--- a/uniaxial-loading-unloading/time_strain_stress/0d05_1d5.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d05_1d5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -91,387 +91,387 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0249999999999999</v>
+        <v>1.026</v>
       </c>
       <c r="C3" s="0">
-        <v>6.9673519543258662</v>
+        <v>7.1537285067873322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B4" s="0">
-        <v>1.05</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>11.011757575757576</v>
+        <v>11.15476100370218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="B5" s="0">
-        <v>1.075</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>14.285479841897232</v>
+        <v>14.402617852735501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="B6" s="0">
-        <v>1.1000000000000001</v>
+        <v>1.101</v>
       </c>
       <c r="C6" s="0">
-        <v>17.100593412384715</v>
+        <v>17.202760180995476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="B7" s="0">
-        <v>1.125</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>19.585525340360121</v>
+        <v>19.678780748663108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="B8" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.151</v>
       </c>
       <c r="C8" s="0">
-        <v>21.809842951251643</v>
+        <v>21.893574660633487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="B9" s="0">
-        <v>1.175</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>23.823521299956077</v>
+        <v>23.901743315508028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.2</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>25.655567852437414</v>
+        <v>25.723771287536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.226</v>
       </c>
       <c r="C11" s="0">
-        <v>27.351039613526559</v>
+        <v>27.413336898395727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.25</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>28.906704435660945</v>
+        <v>28.970737967914438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.5199999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.2749999999999999</v>
+        <v>1.276</v>
       </c>
       <c r="C13" s="0">
-        <v>30.360598858146677</v>
+        <v>30.415018510900868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.3</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>31.692580939833107</v>
+        <v>31.742171945701365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.5199999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.325</v>
+        <v>1.3260000000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>32.949350197628448</v>
+        <v>32.998660633484171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.0199999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.3500000000000001</v>
+        <v>1.351</v>
       </c>
       <c r="C16" s="0">
-        <v>34.116831620553349</v>
+        <v>34.159791032496919</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.5199999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.375</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="C17" s="0">
-        <v>35.208358014931918</v>
+        <v>35.249068696009886</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.0199999999999996</v>
       </c>
       <c r="B18" s="0">
-        <v>1.3999999999999999</v>
+        <v>1.401</v>
       </c>
       <c r="C18" s="0">
-        <v>36.242594642072888</v>
+        <v>36.289178938708361</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.5199999999999996</v>
       </c>
       <c r="B19" s="0">
-        <v>1.425</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="C19" s="0">
-        <v>37.222125779534466</v>
+        <v>37.260784039489927</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.0199999999999996</v>
       </c>
       <c r="B20" s="0">
-        <v>1.45</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>38.134651207729462</v>
+        <v>38.171438091320447</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.5199999999999996</v>
       </c>
       <c r="B21" s="0">
-        <v>1.4750000000000001</v>
+        <v>1.476</v>
       </c>
       <c r="C21" s="0">
-        <v>39.010818445322784</v>
+        <v>39.043311394487873</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.000999999999999</v>
       </c>
       <c r="B22" s="0">
-        <v>1.4500000000000002</v>
+        <v>1.4519500000000001</v>
       </c>
       <c r="C22" s="0">
-        <v>39.813636363636363</v>
+        <v>37.969022301228186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.481</v>
+        <v>10.500999999999999</v>
       </c>
       <c r="B23" s="0">
-        <v>1.4259500000000001</v>
+        <v>1.4269499999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>34.274179183135693</v>
+        <v>34.118860177255897</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>10.981</v>
+        <v>11.000999999999999</v>
       </c>
       <c r="B24" s="0">
-        <v>1.4009500000000001</v>
+        <v>1.40195</v>
       </c>
       <c r="C24" s="0">
-        <v>30.800966902223813</v>
+        <v>30.677309749074457</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.481</v>
+        <v>11.500999999999999</v>
       </c>
       <c r="B25" s="0">
-        <v>1.37595</v>
+        <v>1.3769499999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>27.895198626582019</v>
+        <v>27.784524138962642</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>11.981</v>
+        <v>12.000999999999999</v>
       </c>
       <c r="B26" s="0">
-        <v>1.3509500000000001</v>
+        <v>1.35195</v>
       </c>
       <c r="C26" s="0">
-        <v>25.248959795584291</v>
+        <v>25.148912905276543</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.481</v>
+        <v>12.500999999999999</v>
       </c>
       <c r="B27" s="0">
-        <v>1.3259500000000002</v>
+        <v>1.3269500000000001</v>
       </c>
       <c r="C27" s="0">
-        <v>22.750357248373053</v>
+        <v>22.650588983209307</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>12.981</v>
+        <v>13.000999999999999</v>
       </c>
       <c r="B28" s="0">
-        <v>1.3009500000000001</v>
+        <v>1.3019499999999999</v>
       </c>
       <c r="C28" s="0">
-        <v>20.350796502575157</v>
+        <v>20.257311992820011</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.481</v>
+        <v>13.500999999999999</v>
       </c>
       <c r="B29" s="0">
-        <v>1.2759500000000001</v>
+        <v>1.27695</v>
       </c>
       <c r="C29" s="0">
-        <v>17.991845410628013</v>
+        <v>17.897338917766728</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>13.981</v>
+        <v>14.000999999999999</v>
       </c>
       <c r="B30" s="0">
-        <v>1.25095</v>
+        <v>1.2519499999999999</v>
       </c>
       <c r="C30" s="0">
-        <v>15.657297640435976</v>
+        <v>15.564036124303508</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.481</v>
+        <v>14.500999999999999</v>
       </c>
       <c r="B31" s="0">
-        <v>1.2259500000000001</v>
+        <v>1.22695</v>
       </c>
       <c r="C31" s="0">
-        <v>13.323210524214474</v>
+        <v>13.230070304027526</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>14.981</v>
+        <v>15.000999999999999</v>
       </c>
       <c r="B32" s="0">
-        <v>1.2009500000000002</v>
+        <v>1.2019500000000001</v>
       </c>
       <c r="C32" s="0">
-        <v>10.98253786880664</v>
+        <v>10.887344153173032</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.481</v>
+        <v>15.500999999999999</v>
       </c>
       <c r="B33" s="0">
-        <v>1.1759500000000001</v>
+        <v>1.1769499999999999</v>
       </c>
       <c r="C33" s="0">
-        <v>8.6124572204256005</v>
+        <v>8.5156531169365426</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>15.981</v>
+        <v>16.001000000000001</v>
       </c>
       <c r="B34" s="0">
-        <v>1.1509500000000001</v>
+        <v>1.1519499999999998</v>
       </c>
       <c r="C34" s="0">
-        <v>6.1885723639557613</v>
+        <v>6.0894312105007309</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.481000000000002</v>
+        <v>16.501000000000001</v>
       </c>
       <c r="B35" s="0">
-        <v>1.12595</v>
+        <v>1.1269499999999999</v>
       </c>
       <c r="C35" s="0">
-        <v>3.7176538507605694</v>
+        <v>3.6194368198646281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>16.981000000000002</v>
+        <v>17.001000000000001</v>
       </c>
       <c r="B36" s="0">
-        <v>1.1009500000000001</v>
+        <v>1.10195</v>
       </c>
       <c r="C36" s="0">
-        <v>1.1942232295591972</v>
+        <v>1.0903547922665573</v>
       </c>
     </row>
   </sheetData>
